--- a/Capstone Project Plan - The A Team.xlsx
+++ b/Capstone Project Plan - The A Team.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livecincinnatistate-my.sharepoint.com/personal/bwernke_cincinnatistate_edu/Documents/capstone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\OneDrive\Desktop\Capstone\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="172" documentId="13_ncr:1_{71653870-4289-4BCB-AA64-34C8FB4A2557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C3C9512-FE88-4690-BBCA-D0D18A99FC36}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B707F9-67A7-46B3-B82C-98348675E226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{B1DD1FE8-E612-4F6B-A945-77CE9FCB8084}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
   <si>
     <t>TASK LETTER</t>
   </si>
@@ -219,10 +219,16 @@
     <t>5 weeks</t>
   </si>
   <si>
-    <t xml:space="preserve">Omonigho Odairi, Isaak Galle       </t>
-  </si>
-  <si>
     <t>Brandon Wernke, Isaak Galle</t>
+  </si>
+  <si>
+    <t>Omoh, Isaak</t>
+  </si>
+  <si>
+    <t>Kaitlin, Brandon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandon Wernke, Isaak Galle       </t>
   </si>
 </sst>
 </file>
@@ -272,7 +278,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -335,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -345,19 +351,21 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,7 +683,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -786,31 +794,31 @@
     </row>
     <row r="9" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5"/>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="11" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="O9" s="10" t="s">
         <v>60</v>
       </c>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
@@ -835,10 +843,10 @@
         <v>62</v>
       </c>
       <c r="N10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" s="14" t="s">
         <v>61</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="P10" s="5"/>
     </row>
@@ -865,13 +873,13 @@
         <v>14</v>
       </c>
       <c r="L11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5" t="s">
+      <c r="N11" s="13"/>
+      <c r="O11" s="13" t="s">
         <v>57</v>
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
@@ -898,14 +906,14 @@
         <v>62</v>
       </c>
       <c r="N12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="O12" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
@@ -932,14 +940,14 @@
         <v>62</v>
       </c>
       <c r="N13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O13" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="O13" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
@@ -965,15 +973,15 @@
       <c r="M14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N14" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>57</v>
+      <c r="N14" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
@@ -998,9 +1006,9 @@
         <v>20</v>
       </c>
       <c r="L15" s="5"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="5" t="s">
-        <v>65</v>
+      <c r="N15" s="14"/>
+      <c r="O15" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="P15" s="5"/>
     </row>
@@ -1041,7 +1049,7 @@
         <v>14</v>
       </c>
       <c r="M17" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.5">
@@ -1061,7 +1069,7 @@
         <v>16</v>
       </c>
       <c r="M18" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.5">
@@ -1081,7 +1089,7 @@
         <v>18</v>
       </c>
       <c r="M19" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.5">
@@ -1101,7 +1109,7 @@
         <v>20</v>
       </c>
       <c r="M20" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.5">
@@ -1124,7 +1132,7 @@
         <v>24</v>
       </c>
       <c r="M21" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.5">
